--- a/API/wwwroot/docs/HoaDonDienTu/BANG_KE_HOA_DON_DIEN_TU.xlsx
+++ b/API/wwwroot/docs/HoaDonDienTu/BANG_KE_HOA_DON_DIEN_TU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\bill-back-end\API\wwwroot\docs\HoaDonDienTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A477D234-5F95-4BDB-B542-E659245DB335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0993A3-732D-4123-8E33-9377312B5F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06B77DEB-B356-4EDB-BDC0-8094ABFD0DD9}"/>
   </bookViews>
@@ -149,12 +149,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Wingdings 3"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -163,6 +157,11 @@
       <b/>
       <sz val="14"/>
       <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -240,14 +239,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -569,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ABFDE7-8FC9-4137-8047-D795366FE518}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,64 +601,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -775,7 +774,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>

--- a/API/wwwroot/docs/HoaDonDienTu/BANG_KE_HOA_DON_DIEN_TU.xlsx
+++ b/API/wwwroot/docs/HoaDonDienTu/BANG_KE_HOA_DON_DIEN_TU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\bill-back-end\API\wwwroot\docs\HoaDonDienTu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\bill-back-end\API\wwwroot\docs\HoaDonDienTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0993A3-732D-4123-8E33-9377312B5F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06B77DEB-B356-4EDB-BDC0-8094ABFD0DD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,11 +113,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +163,18 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,18 +237,15 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,16 +253,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{A2BD6275-03AA-43AE-81D3-14DD0DC33DDD}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{8999B835-7F59-4A12-8268-B01E0691F057}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{E90EA366-CDF6-4934-97A4-4F2D1E6FB6DF}"/>
-    <cellStyle name="Percent 2" xfId="4" xr:uid="{8F6C759B-BEDE-439C-BABB-07178068C63D}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,102 +577,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ABFDE7-8FC9-4137-8047-D795366FE518}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="10" width="28.5703125" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="10" width="28.5546875" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" customWidth="1"/>
-    <col min="18" max="18" width="28.7109375" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" customWidth="1"/>
-    <col min="20" max="20" width="29.28515625" customWidth="1"/>
-    <col min="21" max="21" width="30.7109375" customWidth="1"/>
-    <col min="22" max="22" width="30.28515625" customWidth="1"/>
-    <col min="23" max="23" width="37.28515625" customWidth="1"/>
-    <col min="24" max="24" width="21.28515625" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="25.88671875" customWidth="1"/>
+    <col min="18" max="18" width="28.6640625" customWidth="1"/>
+    <col min="19" max="19" width="24.109375" customWidth="1"/>
+    <col min="20" max="20" width="29.33203125" customWidth="1"/>
+    <col min="21" max="21" width="30.6640625" customWidth="1"/>
+    <col min="22" max="22" width="30.33203125" customWidth="1"/>
+    <col min="23" max="23" width="37.33203125" customWidth="1"/>
+    <col min="24" max="24" width="21.33203125" customWidth="1"/>
+    <col min="25" max="25" width="20.88671875" customWidth="1"/>
+    <col min="26" max="26" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -688,7 +700,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -768,33 +780,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+    <row r="5" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -802,5 +814,6 @@
     <mergeCell ref="A2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/API/wwwroot/docs/HoaDonDienTu/BANG_KE_HOA_DON_DIEN_TU.xlsx
+++ b/API/wwwroot/docs/HoaDonDienTu/BANG_KE_HOA_DON_DIEN_TU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\bill-back-end\API\wwwroot\docs\HoaDonDienTu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pmbk\bills\bill-back-end\API\wwwroot\docs\HoaDonDienTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>BẢNG KÊ HÓA ĐƠN ĐIỆN TỬ</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Người lập</t>
+  </si>
+  <si>
+    <t>Mã CQT cấp</t>
   </si>
 </sst>
 </file>
@@ -247,12 +250,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
@@ -260,6 +257,12 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -578,101 +581,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="10" width="28.5546875" customWidth="1"/>
-    <col min="11" max="11" width="29.5546875" customWidth="1"/>
-    <col min="12" max="12" width="29.6640625" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" customWidth="1"/>
-    <col min="16" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="25.88671875" customWidth="1"/>
-    <col min="18" max="18" width="28.6640625" customWidth="1"/>
-    <col min="19" max="19" width="24.109375" customWidth="1"/>
-    <col min="20" max="20" width="29.33203125" customWidth="1"/>
-    <col min="21" max="21" width="30.6640625" customWidth="1"/>
-    <col min="22" max="22" width="30.33203125" customWidth="1"/>
-    <col min="23" max="23" width="37.33203125" customWidth="1"/>
-    <col min="24" max="24" width="21.33203125" customWidth="1"/>
-    <col min="25" max="25" width="20.88671875" customWidth="1"/>
-    <col min="26" max="26" width="18.5546875" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="11" width="28.5546875" customWidth="1"/>
+    <col min="12" max="12" width="29.5546875" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="25.88671875" customWidth="1"/>
+    <col min="19" max="19" width="28.6640625" customWidth="1"/>
+    <col min="20" max="20" width="24.109375" customWidth="1"/>
+    <col min="21" max="21" width="29.33203125" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" customWidth="1"/>
+    <col min="24" max="24" width="37.33203125" customWidth="1"/>
+    <col min="25" max="25" width="21.33203125" customWidth="1"/>
+    <col min="26" max="26" width="20.88671875" customWidth="1"/>
+    <col min="27" max="27" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -699,8 +704,9 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -711,107 +717,111 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+    <row r="5" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:AA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API/wwwroot/docs/HoaDonDienTu/BANG_KE_HOA_DON_DIEN_TU.xlsx
+++ b/API/wwwroot/docs/HoaDonDienTu/BANG_KE_HOA_DON_DIEN_TU.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pmbk\bills\bill-back-end\API\wwwroot\docs\HoaDonDienTu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\HoaDonDienTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CBFE15-496D-4FD6-A54B-C48485462E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>BẢNG KÊ HÓA ĐƠN ĐIỆN TỬ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Từ ngày __/__/____ đến ngày __/__/____</t>
   </si>
@@ -35,125 +41,20 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Ngày hóa đơn</t>
-  </si>
-  <si>
-    <t>Số hóa đơn</t>
-  </si>
-  <si>
-    <t>Ký hiệu mẫu số hóa đơn</t>
-  </si>
-  <si>
-    <t>Ký hiệu hóa đơn</t>
-  </si>
-  <si>
-    <t>Mã khách hàng</t>
-  </si>
-  <si>
-    <t>Tên khách hàng</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
-    <t>Mã số thuế</t>
-  </si>
-  <si>
-    <t>Người mua hàng</t>
-  </si>
-  <si>
-    <t>NV bán hàng</t>
-  </si>
-  <si>
-    <t>Tổng tiền thanh toán</t>
-  </si>
-  <si>
-    <t>Loại hóa đơn</t>
-  </si>
-  <si>
-    <t>Trạng thái hóa đơn</t>
-  </si>
-  <si>
-    <t>Trạng thái phát hành</t>
-  </si>
-  <si>
-    <t>Mã tra cứu</t>
-  </si>
-  <si>
-    <t>Trạng thái gửi hóa đơn</t>
-  </si>
-  <si>
-    <t>Tên người nhận</t>
-  </si>
-  <si>
-    <t>Email người nhận</t>
-  </si>
-  <si>
-    <t>Số điện thoại người nhận</t>
-  </si>
-  <si>
-    <t>Khách hàng đã nhận hóa đơn</t>
-  </si>
-  <si>
-    <t>Số lần chuyển thành hóa đơn giấy</t>
-  </si>
-  <si>
-    <t>Lý do xóa bỏ</t>
-  </si>
-  <si>
-    <t>Loại chứng từ</t>
-  </si>
-  <si>
-    <t>Ngày lập</t>
-  </si>
-  <si>
-    <t>Người lập</t>
-  </si>
-  <si>
-    <t>Mã CQT cấp</t>
+    <t>BẢNG KÊ HÓA ĐƠN ĐIỆN TỬ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -164,20 +65,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="3"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,7 +110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,57 +140,40 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="6"/>
+        <color theme="4"/>
       </left>
       <right style="thin">
-        <color theme="6"/>
+        <color theme="4"/>
       </right>
-      <top style="thin">
-        <color theme="6"/>
+      <top style="hair">
+        <color theme="4"/>
       </top>
       <bottom style="thin">
-        <color theme="6"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Comma 2" xfId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Percent 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1BAE8359-BB78-40ED-8F2F-283B0F1F8CA0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,249 +484,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="11" width="28.5546875" customWidth="1"/>
-    <col min="12" max="12" width="29.5546875" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" customWidth="1"/>
-    <col min="16" max="16" width="22.109375" customWidth="1"/>
-    <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="25.88671875" customWidth="1"/>
-    <col min="19" max="19" width="28.6640625" customWidth="1"/>
-    <col min="20" max="20" width="24.109375" customWidth="1"/>
-    <col min="21" max="21" width="29.33203125" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" customWidth="1"/>
-    <col min="23" max="23" width="30.33203125" customWidth="1"/>
-    <col min="24" max="24" width="37.33203125" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" customWidth="1"/>
-    <col min="26" max="26" width="20.88671875" customWidth="1"/>
-    <col min="27" max="27" width="18.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+    <row r="5" spans="1:1" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="A2:AA2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
